--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399322.393605887</v>
+        <v>-1401878.220004021</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673313</v>
+        <v>12561851.30939063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14518071.87678357</v>
+        <v>14521039.70033569</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.17289288835083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>364.4498637933926</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>97.46708250430575</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.6392942263561</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>69.13498501318973</v>
+        <v>152.2324597815122</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>404.5514786850127</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>81.29036521067786</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>97.54770949728849</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>99.80535061811165</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>72.26558381699924</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>64.91921363453586</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>120.1447214650593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>68.57766702465425</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>72.26558381699516</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>100.1755269486889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392135</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D2" t="n">
-        <v>194.542240332463</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1909.821958247536</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1909.821958247536</v>
       </c>
     </row>
     <row r="3">
@@ -4398,16 +4398,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4468,22 +4468,22 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4495,37 +4495,37 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>799.6142115756892</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430642</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.243655351055</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784715</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.46145193723</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.630994694758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1435.945110521584</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1435.945110521584</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.493512032386</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.809023826499</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.809023826499</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
         <v>1082.809023826499</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.758282883553</v>
+        <v>1580.277174096216</v>
       </c>
       <c r="C5" t="n">
-        <v>846.7957659431409</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>488.5300673363904</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3049.794755798251</v>
+        <v>3061.5449917408</v>
       </c>
       <c r="V5" t="n">
-        <v>2718.73186845468</v>
+        <v>2730.482104397229</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.963213184566</v>
+        <v>2730.482104397229</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.497454923486</v>
+        <v>2357.016346136149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.358122947674</v>
+        <v>1966.877014160337</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,40 +4650,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4705,37 +4705,37 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,13 +4747,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
         <v>1854.900232967364</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1611.504630229388</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1611.504630229388</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1611.504630229388</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1225.716377631144</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>814.7304728415361</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3243.494341598386</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3037.516593982608</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2783.986117256444</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269321</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.10447029351</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>873.2974438277585</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="C10" t="n">
-        <v>873.2974438277585</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D10" t="n">
-        <v>723.1808044154227</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1826.481062615653</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1826.481062615653</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1537.378195741296</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1282.693707535409</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X10" t="n">
-        <v>1094.090022971289</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y10" t="n">
-        <v>873.2974438277585</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="11">
@@ -5039,19 +5039,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5127,7 +5127,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.57599612053</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>920.6398131926233</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>770.5231737802875</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>622.6100801978944</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>475.720132699984</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>308.5240334148639</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>166.812202257062</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029278</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992317</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.0170400943</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.22446095077</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5267,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2325.6047790701</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2106.003314093041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>304.7988649377478</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>138.3747553788942</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>296.757477183911</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>5.281236885076453</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>188.7447557013071</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.63359754465144</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.000252501566294</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>60.8815645365853</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>96.9464712676146</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>213.918890572249</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>125.5341284403483</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>45.99097492814199</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1059501.493768129</v>
+        <v>1069899.830075113</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1285423.566554898</v>
+        <v>1277695.833289839</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1263886.052784769</v>
+        <v>1263886.052784768</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1263886.052784768</v>
+        <v>1263886.052784769</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154575</v>
+        <v>136398.8395883683</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>163211.2270999458</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
@@ -26329,31 +26329,31 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728568</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10751.83355583466</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>89948.20693708514</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
@@ -26433,31 +26433,31 @@
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="M4" t="n">
         <v>21597.66737493621</v>
       </c>
       <c r="N4" t="n">
+        <v>21597.66737493622</v>
+      </c>
+      <c r="O4" t="n">
         <v>21597.66737493621</v>
       </c>
-      <c r="O4" t="n">
-        <v>21597.66737493622</v>
-      </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312028.807129363</v>
+        <v>-1314057.532522589</v>
       </c>
       <c r="C6" t="n">
-        <v>-36519.42947173072</v>
+        <v>-34683.38448444403</v>
       </c>
       <c r="D6" t="n">
-        <v>-36519.42947173066</v>
+        <v>-36519.42947173063</v>
       </c>
       <c r="E6" t="n">
-        <v>-278712.4798051039</v>
+        <v>-278747.2177305394</v>
       </c>
       <c r="F6" t="n">
-        <v>46699.98200225136</v>
+        <v>46665.24407681567</v>
       </c>
       <c r="G6" t="n">
-        <v>46699.98200225132</v>
+        <v>46665.24407681567</v>
       </c>
       <c r="H6" t="n">
-        <v>46699.98200225137</v>
+        <v>46665.24407681561</v>
       </c>
       <c r="I6" t="n">
-        <v>46699.98200225134</v>
+        <v>46665.24407681558</v>
       </c>
       <c r="J6" t="n">
-        <v>-170831.2203950261</v>
+        <v>-170865.958320462</v>
       </c>
       <c r="K6" t="n">
-        <v>46699.98200225142</v>
+        <v>46665.24407681555</v>
       </c>
       <c r="L6" t="n">
-        <v>20018.85275037325</v>
+        <v>20018.85275037344</v>
       </c>
       <c r="M6" t="n">
-        <v>-45608.45719150674</v>
+        <v>-45608.45719150659</v>
       </c>
       <c r="N6" t="n">
+        <v>39446.57074400509</v>
+      </c>
+      <c r="O6" t="n">
         <v>39446.57074400515</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>39446.57074400521</v>
-      </c>
-      <c r="P6" t="n">
-        <v>39446.57074400509</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>181.8601869457123</v>
+        <v>98.7627121773898</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>17.26178070013006</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,7 +27828,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.370246968440767</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>27.89739657749797</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>48.88625314928068</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>89.96367471333025</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34863,10 +34863,10 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>311.4139847019725</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010408</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
